--- a/CoreRulebook/Data/Spells/Spellbooks/bookNames.xlsx
+++ b/CoreRulebook/Data/Spells/Spellbooks/bookNames.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$15</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -43,6 +46,90 @@
     <t xml:space="preserve">Ascendant</t>
   </si>
   <si>
+    <t xml:space="preserve">Alteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Beginner\apos{}s Guide to Transfiguration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmutation and Transformative Tricks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theories of Transubstantial Transfiguration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Subtle Nuances of Transmogrification, Transformation and Transfiguration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altering the World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaping the Clay of Reality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bewitchment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy Spells to Fool Muggles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiggery Pockery \&amp; Hocus Pocus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Gentle Guide to Persuading the Mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the Mysteries of the Human Mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merlin\apos{}s Tricks and Incantations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light and Perception: The Magician\apos{}s Mastery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Illusion of {\it Thin Air}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Making and Unmaking: The Art of Conjuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summoning Your Desires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjuring and Summoning for the Experienced Witch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Demons Beyond the Veil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Outer Planes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Compendium of Common Curses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curses \&amp; Counter Curses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voodoo and Vomiting: A Study in Curses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cursing your Way to Revenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bumper Book of Crooked Curses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damn, or Be Damned</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elemental</t>
   </si>
   <si>
@@ -64,6 +151,48 @@
     <t xml:space="preserve">The Avatar of the Elements</t>
   </si>
   <si>
+    <t xml:space="preserve">Healing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cures, Cantrips and Coughs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic to Make Others Better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life, and How to Preserve it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponderances on Advanced Healing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journals of St. Mungo, the Master Healer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ressurection, a Fools Goal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Hexes for the Busy \&amp; Vexed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexes to Make Your Head Spin (Literally)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexing Your Problems - the Healthy Coping Mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Forces: A Guide to Self-Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Auror\apos{}s Toolkit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majestic Hexes for the Experienced Duelist</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kinesis</t>
   </si>
   <si>
@@ -85,6 +214,69 @@
     <t xml:space="preserve">The Matter of Mass</t>
   </si>
   <si>
+    <t xml:space="preserve">Necromancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necromancy: A Misunderstood Skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Forbidden Arts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defying Nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magick Moste Evile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spelles Moste Vyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secrets of the Darkest Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occultism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An A-Z of Spooky Spells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rehabilitating Blood and Darkness in Everyday Magic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Living in Shadow: The Memoirs of an Occultist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covens: The Power in the Circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theories on the World Beyond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eldritch Domains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psionics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cool Cantrips to Make You Crazy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Mind, the Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mindmakers, Mindbreakers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Immoral Art of Psionics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melting Minds: The Master Guide to Psionics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Apotheosis of the Psionics</t>
+  </si>
+  <si>
     <t xml:space="preserve">Telepathy</t>
   </si>
   <si>
@@ -127,111 +319,6 @@
     <t xml:space="preserve">Stepping Through the Ages</t>
   </si>
   <si>
-    <t xml:space="preserve">Bewitchment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy Spells to Fool Muggles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiggery Pockery \&amp; Hocus Pocus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Gentle Guide to Persuading the Mind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On the Mysteries of the Human Mind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merlin\apos{}s Tricks and Incantations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Light and Perception: The Magician\apos{}s Mastery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psionics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cool Cantrips to Make You Crazy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your Mind, the Weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mindmakers, Mindbreakers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Immoral Art of Psionics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melting Minds: The Master Guide to Psionics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Apotheosis of the Psionics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Compendium of Common Curses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curses \&amp; Counter Curses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voodoo and Vomiting: A Study in Curses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cursing your Way to Revenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Bumper Book of Crooked Curses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Damn, or Be Damned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic Hexes for the Busy \&amp; Vexed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hexes to Make Your Head Spin (Literally)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hexing Your Problems - the Healthy Coping Mechanism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dark Forces: A Guide to Self-Defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An Auror\apos{}s Toolkit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Majestic Hexes for the Experienced Duelist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Healing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cures, Cantrips and Coughs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic to Make Others Better</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Life, and How to Preserve it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ponderances on Advanced Healing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journals of St. Mungo, the Master Healer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ressurection, a Fools Goal?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Warding</t>
   </si>
   <si>
@@ -251,90 +338,6 @@
   </si>
   <si>
     <t xml:space="preserve">Defending Against  the Undefendable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Beginner\apos{}s Guide to Transfiguration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmutation and Transformative Tricks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theories of Transubstantial Transfiguration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Subtle Nuances of Transmogrification, Transformation and Transfiguration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altering the World</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaping the Clay of Reality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Illusion of {\it Thin Air}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Making and Unmaking: The Art of Conjuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summoning Your Desires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjuring and Summoning for the Experienced Witch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Demons Beyond the Veil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Outer Planes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necromancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necromancy: A Misunderstood Skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Forbidden Arts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defying Nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magick Moste Evile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spelles Moste Vyle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secrets of the Darkest Art</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occultism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An A-Z of Spooky Spells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rehabilitating Blood and Darkness in Everyday Magic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Living in Shadow: The Memoirs of an Occultist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covens: The Power in the Circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theories on the World Beyond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eldritch Domains</t>
   </si>
 </sst>
 </file>
@@ -447,6 +450,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -454,8 +461,8 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -489,7 +496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
@@ -673,7 +680,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>63</v>
       </c>
@@ -719,7 +726,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>77</v>
       </c>
@@ -765,7 +772,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>91</v>
       </c>
@@ -812,6 +819,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G15"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -819,5 +827,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>